--- a/Excel Sheets/phys346_t8.xlsx
+++ b/Excel Sheets/phys346_t8.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\OneDrive\Desktop\Spring 2024\Assignments\Physics\Adlab Lab 5 - RLE\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d0add38f13e4a50/Desktop/Spring 2024/Assignments/Physics/Adlab Lab 5 - RLE/AdLab_Lab_5/Excel Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A0301-0414-4066-A4C3-FBEE5B30BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{947A0301-0414-4066-A4C3-FBEE5B30BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8643DA33-3BAA-438F-BE32-3BEA50C96CDB}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
+    <workbookView xWindow="3120" yWindow="1960" windowWidth="19200" windowHeight="9980" xr2:uid="{B172C8C6-7D3F-4516-B188-A82CFDF87B30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="bt">Sheet1!$F$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36C4B30-E846-4E8E-9968-FF3CDB4A6A11}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E2" sqref="E2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -435,6 +438,149 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.315</v>
+      </c>
+      <c r="C3">
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="B4">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="C4">
+        <v>6.5999999999998948E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.11599999999999966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="B6">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.13299999999999912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="B7">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.17399999999999949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="B8">
+        <v>0.61950000000000005</v>
+      </c>
+      <c r="C8">
+        <v>0.19900000000000162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9">
+        <v>0.24099999999999966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>1.0495000000000001</v>
+      </c>
+      <c r="B10">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="C10">
+        <v>0.26600000000000179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>1.1924999999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.29899999999999949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>1.3125</v>
+      </c>
+      <c r="B12">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="C12">
+        <v>0.34100000000000108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>1.4735</v>
+      </c>
+      <c r="B13">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="C13">
+        <v>0.36599999999999966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>1.5814999999999999</v>
+      </c>
+      <c r="B14">
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.40800000000000125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
